--- a/hw_model/fully_connected_4x4_unif/verify outputs.xlsx
+++ b/hw_model/fully_connected_4x4_unif/verify outputs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\Desktop\fully_connected_4x4_unif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\Desktop\Workshop\Componenti\fully_connected_4x4_unif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB03EF7-3189-4CFA-A17B-9079E9BE0429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5202E39-BBE2-423E-8BB3-7E33F1F56356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t xml:space="preserve">sim results </t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>real results2</t>
+  </si>
+  <si>
+    <t>sim results c3</t>
+  </si>
+  <si>
+    <t>real resultsc3</t>
   </si>
 </sst>
 </file>
@@ -363,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="L2" sqref="L2:L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,9 +383,11 @@
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,8 +406,17 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10100</v>
       </c>
@@ -420,8 +437,18 @@
         <f xml:space="preserve"> F2-G2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>11111110010</v>
+      </c>
+      <c r="K2">
+        <v>11111110010</v>
+      </c>
+      <c r="L2">
+        <f xml:space="preserve"> J2-K2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>110100</v>
       </c>
@@ -442,8 +469,18 @@
         <f t="shared" ref="H3:H11" si="1" xml:space="preserve"> F3-G3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>11111110101</v>
+      </c>
+      <c r="K3">
+        <v>11111110101</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="2" xml:space="preserve"> J3-K3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -464,8 +501,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>11111111100</v>
+      </c>
+      <c r="K4">
+        <v>11111111100</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>110</v>
       </c>
@@ -486,8 +533,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>11111111000</v>
+      </c>
+      <c r="K5">
+        <v>11111111000</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11000</v>
       </c>
@@ -508,8 +565,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>11111110101</v>
+      </c>
+      <c r="K6">
+        <v>11111110101</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>101</v>
       </c>
@@ -530,8 +597,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>101011</v>
+      </c>
+      <c r="K7">
+        <v>101011</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11111100000</v>
       </c>
@@ -552,8 +629,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>11111110110</v>
+      </c>
+      <c r="K8">
+        <v>11111110110</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11111111100</v>
       </c>
@@ -574,8 +661,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>110111</v>
+      </c>
+      <c r="K9">
+        <v>110111</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11110111011</v>
       </c>
@@ -596,8 +693,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>11111110011</v>
+      </c>
+      <c r="K10">
+        <v>11111110011</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10010</v>
       </c>
@@ -618,8 +725,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>10010</v>
+      </c>
+      <c r="K11">
+        <v>10010</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>101</v>
       </c>
@@ -630,8 +747,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>1000</v>
+      </c>
+      <c r="K12">
+        <v>1000</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11111111100</v>
       </c>
@@ -642,8 +769,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11111010011</v>
       </c>
@@ -654,8 +791,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>11111111111</v>
+      </c>
+      <c r="K14">
+        <v>11111111111</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11111111010</v>
       </c>
@@ -666,8 +813,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>10001</v>
+      </c>
+      <c r="K15">
+        <v>10001</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1010</v>
       </c>
@@ -678,8 +835,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>10011</v>
+      </c>
+      <c r="K16">
+        <v>10011</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11111111110</v>
       </c>
@@ -690,8 +857,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>1010</v>
+      </c>
+      <c r="K17">
+        <v>1010</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11110</v>
       </c>
@@ -702,8 +879,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>11110101000</v>
+      </c>
+      <c r="K18">
+        <v>11110101000</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11111001011</v>
       </c>
@@ -714,8 +901,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>1001</v>
+      </c>
+      <c r="K19">
+        <v>1001</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11111101010</v>
       </c>
@@ -726,8 +923,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>11000</v>
+      </c>
+      <c r="K20">
+        <v>11000</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11111011101</v>
       </c>
@@ -738,8 +945,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>11111011100</v>
+      </c>
+      <c r="K21">
+        <v>11111011100</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11111110101</v>
       </c>
@@ -750,8 +967,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>11111100110</v>
+      </c>
+      <c r="K22">
+        <v>11111100110</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11111111111</v>
       </c>
@@ -762,8 +989,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>1001</v>
+      </c>
+      <c r="K23">
+        <v>1001</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11111100110</v>
       </c>
@@ -774,8 +1011,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>11111110110</v>
+      </c>
+      <c r="K24">
+        <v>11111110110</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11111111001</v>
       </c>
@@ -786,8 +1033,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>111</v>
+      </c>
+      <c r="K25">
+        <v>111</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1001</v>
       </c>
@@ -798,8 +1055,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>10100</v>
+      </c>
+      <c r="K26">
+        <v>10100</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11111101000</v>
       </c>
@@ -810,8 +1077,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>11</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100001</v>
       </c>
@@ -822,8 +1099,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>1111</v>
+      </c>
+      <c r="K28">
+        <v>1111</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10011</v>
       </c>
@@ -834,8 +1121,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>110</v>
+      </c>
+      <c r="K29">
+        <v>110</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1001100</v>
       </c>
@@ -846,8 +1143,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>111110</v>
+      </c>
+      <c r="K30">
+        <v>111110</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11111011111</v>
       </c>
@@ -858,8 +1165,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>1000110</v>
+      </c>
+      <c r="K31">
+        <v>1000110</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>101001</v>
       </c>
@@ -870,8 +1187,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>110</v>
+      </c>
+      <c r="K32">
+        <v>110</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>101101</v>
       </c>
@@ -882,8 +1209,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>11111001100</v>
+      </c>
+      <c r="K33">
+        <v>11111001100</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11111101010</v>
       </c>
@@ -894,8 +1231,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>11110110100</v>
+      </c>
+      <c r="K34">
+        <v>11110110100</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>11111101100</v>
       </c>
@@ -906,8 +1253,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>10000</v>
+      </c>
+      <c r="K35">
+        <v>10000</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11111101011</v>
       </c>
@@ -918,8 +1275,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>11111111010</v>
+      </c>
+      <c r="K36">
+        <v>11111111010</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11111110010</v>
       </c>
@@ -930,8 +1297,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>100000</v>
+      </c>
+      <c r="K37">
+        <v>100000</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11100</v>
       </c>
@@ -942,8 +1319,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>100111</v>
+      </c>
+      <c r="K38">
+        <v>100111</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11111111101</v>
       </c>
@@ -954,8 +1341,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>100011</v>
+      </c>
+      <c r="K39">
+        <v>100011</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>11111110001</v>
       </c>
@@ -966,8 +1363,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>1110</v>
+      </c>
+      <c r="K40">
+        <v>1110</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11110111010</v>
       </c>
@@ -978,8 +1385,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>11111110011</v>
+      </c>
+      <c r="K41">
+        <v>11111110011</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11000</v>
       </c>
@@ -990,8 +1407,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>11111110011</v>
+      </c>
+      <c r="K42">
+        <v>11111110011</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11111111011</v>
       </c>
@@ -1002,8 +1429,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>11111101011</v>
+      </c>
+      <c r="K43">
+        <v>11111101011</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>11111111111</v>
       </c>
@@ -1014,8 +1451,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>11111100011</v>
+      </c>
+      <c r="K44">
+        <v>11111100011</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11111101110</v>
       </c>
@@ -1026,8 +1473,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>11111010011</v>
+      </c>
+      <c r="K45">
+        <v>11111010011</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11111110101</v>
       </c>
@@ -1038,8 +1495,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>11111110001</v>
+      </c>
+      <c r="K46">
+        <v>11111110001</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11011</v>
       </c>
@@ -1050,8 +1517,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>11111100000</v>
+      </c>
+      <c r="K47">
+        <v>11111100000</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11111010010</v>
       </c>
@@ -1062,8 +1539,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>11111101110</v>
+      </c>
+      <c r="K48">
+        <v>11111101110</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1111</v>
       </c>
@@ -1074,8 +1561,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>11111101000</v>
+      </c>
+      <c r="K49">
+        <v>11111101000</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>101001</v>
       </c>
@@ -1086,8 +1583,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>11111000010</v>
+      </c>
+      <c r="K50">
+        <v>11111000010</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>11111111101</v>
       </c>
@@ -1098,8 +1605,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>1010100</v>
+      </c>
+      <c r="K51">
+        <v>1010100</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1110,8 +1627,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>11111100010</v>
+      </c>
+      <c r="K52">
+        <v>11111100010</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>110111</v>
       </c>
@@ -1122,8 +1649,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>1001</v>
+      </c>
+      <c r="K53">
+        <v>1001</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>11111010100</v>
       </c>
@@ -1134,8 +1671,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>11111111000</v>
+      </c>
+      <c r="K54">
+        <v>11111111000</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1111</v>
       </c>
@@ -1146,8 +1693,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>1001001</v>
+      </c>
+      <c r="K55">
+        <v>1001001</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11111011000</v>
       </c>
@@ -1158,8 +1715,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>110</v>
+      </c>
+      <c r="K56">
+        <v>110</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11111001100</v>
       </c>
@@ -1170,8 +1737,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>11111111000</v>
+      </c>
+      <c r="K57">
+        <v>11111111000</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1000</v>
       </c>
@@ -1182,8 +1759,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>1100101</v>
+      </c>
+      <c r="K58">
+        <v>1100101</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10100</v>
       </c>
@@ -1194,8 +1781,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>11111101110</v>
+      </c>
+      <c r="K59">
+        <v>11111101110</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11111000010</v>
       </c>
@@ -1206,8 +1803,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>100010</v>
+      </c>
+      <c r="K60">
+        <v>100010</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11111101110</v>
       </c>
@@ -1218,8 +1825,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>1010</v>
+      </c>
+      <c r="K61">
+        <v>1010</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>101001</v>
       </c>
@@ -1230,8 +1847,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>111001</v>
+      </c>
+      <c r="K62">
+        <v>111001</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11111100100</v>
       </c>
@@ -1242,8 +1869,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>11111001111</v>
+      </c>
+      <c r="K63">
+        <v>11111001111</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11111100101</v>
       </c>
@@ -1254,8 +1891,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>11111110010</v>
+      </c>
+      <c r="K64">
+        <v>11111110010</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>11111101111</v>
       </c>
@@ -1266,8 +1913,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>11111110011</v>
+      </c>
+      <c r="K65">
+        <v>11111110011</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>11111111000</v>
       </c>
@@ -1278,8 +1935,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>101001</v>
+      </c>
+      <c r="K66">
+        <v>101001</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11111111011</v>
       </c>
@@ -1287,11 +1954,21 @@
         <v>11111111011</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C85" si="2" xml:space="preserve"> A67 - B67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C67:C85" si="3" xml:space="preserve"> A67 - B67</f>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>11111100101</v>
+      </c>
+      <c r="K67">
+        <v>11111100101</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L121" si="4" xml:space="preserve"> J67-K67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11111110001</v>
       </c>
@@ -1299,11 +1976,21 @@
         <v>11111110001</v>
       </c>
       <c r="C68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>10100</v>
+      </c>
+      <c r="K68">
+        <v>10100</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>11111100100</v>
       </c>
@@ -1311,11 +1998,21 @@
         <v>11111100100</v>
       </c>
       <c r="C69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>11111010111</v>
+      </c>
+      <c r="K69">
+        <v>11111010111</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>11111100010</v>
       </c>
@@ -1323,11 +2020,21 @@
         <v>11111100010</v>
       </c>
       <c r="C70">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>10</v>
+      </c>
+      <c r="K70">
+        <v>10</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>11111111000</v>
       </c>
@@ -1335,11 +2042,21 @@
         <v>11111111000</v>
       </c>
       <c r="C71">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1101110</v>
+      </c>
+      <c r="K71">
+        <v>1101110</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>11111101100</v>
       </c>
@@ -1347,11 +2064,21 @@
         <v>11111101100</v>
       </c>
       <c r="C72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>11111100101</v>
+      </c>
+      <c r="K72">
+        <v>11111100101</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10</v>
       </c>
@@ -1359,11 +2086,21 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>100111</v>
+      </c>
+      <c r="K73">
+        <v>100111</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>11111011011</v>
       </c>
@@ -1371,11 +2108,21 @@
         <v>11111011011</v>
       </c>
       <c r="C74">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>11</v>
+      </c>
+      <c r="K74">
+        <v>11</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>11111111110</v>
       </c>
@@ -1383,11 +2130,21 @@
         <v>11111111110</v>
       </c>
       <c r="C75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>100110</v>
+      </c>
+      <c r="K75">
+        <v>100110</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11111110011</v>
       </c>
@@ -1395,11 +2152,21 @@
         <v>11111110011</v>
       </c>
       <c r="C76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1100</v>
+      </c>
+      <c r="K76">
+        <v>1100</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11111101111</v>
       </c>
@@ -1407,11 +2174,21 @@
         <v>11111101111</v>
       </c>
       <c r="C77">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>101110</v>
+      </c>
+      <c r="K77">
+        <v>101110</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>11111100100</v>
       </c>
@@ -1419,11 +2196,21 @@
         <v>11111100100</v>
       </c>
       <c r="C78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>10000</v>
+      </c>
+      <c r="K78">
+        <v>10000</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>11</v>
       </c>
@@ -1431,11 +2218,21 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1010</v>
+      </c>
+      <c r="K79">
+        <v>1010</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1010</v>
       </c>
@@ -1443,11 +2240,21 @@
         <v>1010</v>
       </c>
       <c r="C80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>100100</v>
+      </c>
+      <c r="K80">
+        <v>100100</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>11111101010</v>
       </c>
@@ -1455,11 +2262,21 @@
         <v>11111101010</v>
       </c>
       <c r="C81">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1110</v>
+      </c>
+      <c r="K81">
+        <v>1110</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>11111110010</v>
       </c>
@@ -1467,11 +2284,21 @@
         <v>11111110010</v>
       </c>
       <c r="C82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>11111101110</v>
+      </c>
+      <c r="K82">
+        <v>11111101110</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>11111101111</v>
       </c>
@@ -1479,11 +2306,21 @@
         <v>11111101111</v>
       </c>
       <c r="C83">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>11111100000</v>
+      </c>
+      <c r="K83">
+        <v>11111100000</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0</v>
       </c>
@@ -1491,11 +2328,21 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1001</v>
+      </c>
+      <c r="K84">
+        <v>1001</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>100</v>
       </c>
@@ -1503,7 +2350,449 @@
         <v>100</v>
       </c>
       <c r="C85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>11111111011</v>
+      </c>
+      <c r="K85">
+        <v>11111111011</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>11111011000</v>
+      </c>
+      <c r="K86">
+        <v>11111011000</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <v>11111110011</v>
+      </c>
+      <c r="K87">
+        <v>11111110011</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <v>10110</v>
+      </c>
+      <c r="K88">
+        <v>10110</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>10010</v>
+      </c>
+      <c r="K89">
+        <v>10010</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J90">
+        <v>1001</v>
+      </c>
+      <c r="K90">
+        <v>1001</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <v>11111111101</v>
+      </c>
+      <c r="K91">
+        <v>11111111101</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <v>11111111101</v>
+      </c>
+      <c r="K92">
+        <v>11111111101</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J93">
+        <v>10001</v>
+      </c>
+      <c r="K93">
+        <v>10001</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <v>11111</v>
+      </c>
+      <c r="K94">
+        <v>11111</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>11</v>
+      </c>
+      <c r="K95">
+        <v>11</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J96">
+        <v>11111101000</v>
+      </c>
+      <c r="K96">
+        <v>11111101000</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J97">
+        <v>11101</v>
+      </c>
+      <c r="K97">
+        <v>11101</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J98">
+        <v>101100</v>
+      </c>
+      <c r="K98">
+        <v>101100</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J99">
+        <v>11111111010</v>
+      </c>
+      <c r="K99">
+        <v>11111111010</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <v>11111100100</v>
+      </c>
+      <c r="K100">
+        <v>11111100100</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <v>110001</v>
+      </c>
+      <c r="K101">
+        <v>110001</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J102">
+        <v>11111001000</v>
+      </c>
+      <c r="K102">
+        <v>11111001000</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J103">
+        <v>11101</v>
+      </c>
+      <c r="K103">
+        <v>11101</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <v>101110</v>
+      </c>
+      <c r="K104">
+        <v>101110</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J105">
+        <v>11111011001</v>
+      </c>
+      <c r="K105">
+        <v>11111011001</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <v>110100</v>
+      </c>
+      <c r="K106">
+        <v>110100</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <v>110</v>
+      </c>
+      <c r="K107">
+        <v>110</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <v>11111000110</v>
+      </c>
+      <c r="K108">
+        <v>11111000110</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J109">
+        <v>11111011111</v>
+      </c>
+      <c r="K109">
+        <v>11111011111</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J110">
+        <v>1100</v>
+      </c>
+      <c r="K110">
+        <v>1100</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <v>11111101100</v>
+      </c>
+      <c r="K111">
+        <v>11111101100</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <v>11111001111</v>
+      </c>
+      <c r="K112">
+        <v>11111001111</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J113">
+        <v>11111010000</v>
+      </c>
+      <c r="K113">
+        <v>11111010000</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J114">
+        <v>101100</v>
+      </c>
+      <c r="K114">
+        <v>101100</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J115">
+        <v>1100</v>
+      </c>
+      <c r="K115">
+        <v>1100</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J116">
+        <v>10010</v>
+      </c>
+      <c r="K116">
+        <v>10010</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J117">
+        <v>11111111001</v>
+      </c>
+      <c r="K117">
+        <v>11111111001</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J118">
+        <v>1000010</v>
+      </c>
+      <c r="K118">
+        <v>1000010</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <v>11111101000</v>
+      </c>
+      <c r="K119">
+        <v>11111101000</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J120">
+        <v>11111111101</v>
+      </c>
+      <c r="K120">
+        <v>11111111101</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J121">
+        <v>10001</v>
+      </c>
+      <c r="K121">
+        <v>10001</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
